--- a/[5] Tester Results/TEST_PEAKTIME_REACTIONTIME_TO_STRENGTH_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_PEAKTIME_REACTIONTIME_TO_STRENGTH_PARAMETRIC.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2031787783722086</v>
+        <v>-0.6211668499660735</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000347544195907606</v>
+        <v>4.815175332824213e-34</v>
       </c>
       <c r="E2" t="n">
         <v>306</v>
       </c>
       <c r="F2" t="n">
-        <v>92.74291938997821</v>
+        <v>28.95615468409586</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.3546128997202878</v>
+        <v>-0.01066520486972785</v>
       </c>
       <c r="D3" t="n">
-        <v>1.696763951741325e-10</v>
+        <v>0.8525964077721476</v>
       </c>
       <c r="E3" t="n">
         <v>306</v>
       </c>
       <c r="F3" t="n">
-        <v>112.6277777777778</v>
+        <v>53.29264705882353</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1914957172196703</v>
+        <v>-0.6144760704884566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000759044772850412</v>
+        <v>3.714845848590823e-33</v>
       </c>
       <c r="E4" t="n">
         <v>306</v>
       </c>
       <c r="F4" t="n">
-        <v>92.65464433551199</v>
+        <v>27.40358129904082</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.354644200936211</v>
+        <v>-0.01026639427374046</v>
       </c>
       <c r="D5" t="n">
-        <v>1.690085017413719e-10</v>
+        <v>0.8580489891333452</v>
       </c>
       <c r="E5" t="n">
         <v>306</v>
       </c>
       <c r="F5" t="n">
-        <v>112.5395027233116</v>
+        <v>51.74007367376849</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2025573786768527</v>
+        <v>-0.6018614090089365</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003626935876894259</v>
+        <v>1.535981753437843e-31</v>
       </c>
       <c r="E6" t="n">
         <v>306</v>
       </c>
       <c r="F6" t="n">
-        <v>80.56725980392159</v>
+        <v>24.09187581811602</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.3523371524509844</v>
+        <v>-0.001871291740952063</v>
       </c>
       <c r="D7" t="n">
-        <v>2.257636562170164e-10</v>
+        <v>0.9739933349711201</v>
       </c>
       <c r="E7" t="n">
         <v>306</v>
       </c>
       <c r="F7" t="n">
-        <v>100.4521181917212</v>
+        <v>48.42836819284369</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2679017710882767</v>
+        <v>-0.6321758848692305</v>
       </c>
       <c r="D8" t="n">
-        <v>1.990603070925228e-06</v>
+        <v>1.496543022747397e-35</v>
       </c>
       <c r="E8" t="n">
         <v>306</v>
       </c>
       <c r="F8" t="n">
-        <v>17.67983496732026</v>
+        <v>-8.369496187363833</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.3495589751368477</v>
+        <v>-0.01386718815181368</v>
       </c>
       <c r="D9" t="n">
-        <v>3.189581085973161e-10</v>
+        <v>0.8090935680153661</v>
       </c>
       <c r="E9" t="n">
         <v>306</v>
       </c>
       <c r="F9" t="n">
-        <v>37.56469335511983</v>
+        <v>15.96699618736384</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1777510794082094</v>
+        <v>-0.009265148028323155</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001799060049938052</v>
+        <v>0.8717673033711183</v>
       </c>
       <c r="E10" t="n">
         <v>306</v>
       </c>
       <c r="F10" t="n">
-        <v>107.839431372549</v>
+        <v>2533.098045206972</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1172279615052721</v>
+        <v>0.2068923819971585</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04042983560286875</v>
+        <v>0.0002686121288510638</v>
       </c>
       <c r="E11" t="n">
         <v>306</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7242897603486</v>
+        <v>2557.4345375817</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2508748520322157</v>
+        <v>-0.7358650264747747</v>
       </c>
       <c r="D12" t="n">
-        <v>8.921192980001779e-06</v>
+        <v>2.070701138867749e-53</v>
       </c>
       <c r="E12" t="n">
         <v>306</v>
       </c>
       <c r="F12" t="n">
-        <v>12162.1035201525</v>
+        <v>2242.865821350763</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.3269692998208169</v>
+        <v>0.04059522150330353</v>
       </c>
       <c r="D13" t="n">
-        <v>4.684354922069179e-09</v>
+        <v>0.4792485139463066</v>
       </c>
       <c r="E13" t="n">
         <v>306</v>
       </c>
       <c r="F13" t="n">
-        <v>12181.9883785403</v>
+        <v>2267.202313725491</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/TEST_PEAKTIME_REACTIONTIME_TO_STRENGTH_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_PEAKTIME_REACTIONTIME_TO_STRENGTH_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -492,7 +492,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -501,46 +501,46 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.01066520486972785</v>
+        <v>-0.6144760704884566</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8525964077721476</v>
+        <v>3.714845848590823e-33</v>
       </c>
       <c r="E3" t="n">
         <v>306</v>
       </c>
       <c r="F3" t="n">
-        <v>53.29264705882353</v>
+        <v>27.40358129904082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.6144760704884566</v>
+        <v>-0.6018614090089365</v>
       </c>
       <c r="D4" t="n">
-        <v>3.714845848590823e-33</v>
+        <v>1.535981753437843e-31</v>
       </c>
       <c r="E4" t="n">
         <v>306</v>
       </c>
       <c r="F4" t="n">
-        <v>27.40358129904082</v>
+        <v>24.09187581811602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -549,46 +549,46 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.01026639427374046</v>
+        <v>-0.6321758848692305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8580489891333452</v>
+        <v>1.496543022747397e-35</v>
       </c>
       <c r="E5" t="n">
         <v>306</v>
       </c>
       <c r="F5" t="n">
-        <v>51.74007367376849</v>
+        <v>-8.369496187363833</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.6018614090089365</v>
+        <v>-0.009265148028323155</v>
       </c>
       <c r="D6" t="n">
-        <v>1.535981753437843e-31</v>
+        <v>0.8717673033711183</v>
       </c>
       <c r="E6" t="n">
         <v>306</v>
       </c>
       <c r="F6" t="n">
-        <v>24.09187581811602</v>
+        <v>2533.098045206972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,160 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.001871291740952063</v>
+        <v>-0.7358650264747747</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9739933349711201</v>
+        <v>2.070701138867749e-53</v>
       </c>
       <c r="E7" t="n">
         <v>306</v>
       </c>
       <c r="F7" t="n">
-        <v>48.42836819284369</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.6321758848692305</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.496543022747397e-35</v>
-      </c>
-      <c r="E8" t="n">
-        <v>306</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-8.369496187363833</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.01386718815181368</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8090935680153661</v>
-      </c>
-      <c r="E9" t="n">
-        <v>306</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15.96699618736384</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.009265148028323155</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.8717673033711183</v>
-      </c>
-      <c r="E10" t="n">
-        <v>306</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2533.098045206972</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2068923819971585</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0002686121288510638</v>
-      </c>
-      <c r="E11" t="n">
-        <v>306</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2557.4345375817</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.7358650264747747</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.070701138867749e-53</v>
-      </c>
-      <c r="E12" t="n">
-        <v>306</v>
-      </c>
-      <c r="F12" t="n">
         <v>2242.865821350763</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04059522150330353</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.4792485139463066</v>
-      </c>
-      <c r="E13" t="n">
-        <v>306</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2267.202313725491</v>
       </c>
     </row>
   </sheetData>
